--- a/src/models/baselines/LR/results/real-world/Kaggle/metrics.xlsx
+++ b/src/models/baselines/LR/results/real-world/Kaggle/metrics.xlsx
@@ -456,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4433497536945813</v>
+        <v>0.4630541871921182</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4433497536945813</v>
+        <v>0.4630541871921182</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6213494076458665</v>
+        <v>0.6638579975937307</v>
       </c>
     </row>
     <row r="3">
@@ -470,13 +470,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4236453201970443</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4236453201970443</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D3" t="n">
-        <v>0.621259849987535</v>
+        <v>0.6184757042673343</v>
       </c>
     </row>
     <row r="4">
@@ -484,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.477832512315271</v>
+        <v>0.4975369458128079</v>
       </c>
       <c r="C4" t="n">
-        <v>0.477832512315271</v>
+        <v>0.4975369458128079</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6607816039627571</v>
+        <v>0.6738190854008823</v>
       </c>
     </row>
     <row r="5">
@@ -498,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4729064039408867</v>
+        <v>0.4926108374384237</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4729064039408867</v>
+        <v>0.4926108374384237</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6254496851255703</v>
+        <v>0.6485174888086799</v>
       </c>
     </row>
     <row r="6">
@@ -512,13 +512,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.458128078817734</v>
+        <v>0.4433497536945813</v>
       </c>
       <c r="C6" t="n">
-        <v>0.458128078817734</v>
+        <v>0.4433497536945813</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6307341289196718</v>
+        <v>0.6428917503983351</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4384236453201971</v>
+        <v>0.4630541871921182</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4384236453201971</v>
+        <v>0.4630541871921182</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6112677353970887</v>
+        <v>0.6065306636750886</v>
       </c>
     </row>
     <row r="8">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5024630541871922</v>
+        <v>0.4975369458128079</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5024630541871922</v>
+        <v>0.4975369458128079</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6803114059332965</v>
+        <v>0.6805134187450547</v>
       </c>
     </row>
     <row r="9">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5024630541871922</v>
+        <v>0.4975369458128079</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5024630541871922</v>
+        <v>0.4975369458128079</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6465186323285533</v>
+        <v>0.6785247238751776</v>
       </c>
     </row>
     <row r="10">
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4729064039408867</v>
+        <v>0.4926108374384237</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4729064039408867</v>
+        <v>0.4926108374384237</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6396268927692691</v>
+        <v>0.6422580723831821</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.458128078817734</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.458128078817734</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6314528934846464</v>
+        <v>0.6218562687651069</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.467487684729064</v>
+        <v>0.4733990147783251</v>
       </c>
       <c r="C2" t="n">
-        <v>0.467487684729064</v>
+        <v>0.4733990147783251</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6368752235554255</v>
+        <v>0.6477245173912572</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02642096845756042</v>
+        <v>0.02548596646790239</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02642096845756042</v>
+        <v>0.02548596646790241</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02080885472903643</v>
+        <v>0.02633215152649444</v>
       </c>
     </row>
   </sheetData>
